--- a/1.xlsx
+++ b/1.xlsx
@@ -15,681 +15,808 @@
     <sheet name="6" sheetId="6" r:id="rId6"/>
     <sheet name="7" sheetId="7" r:id="rId7"/>
     <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="223">
-  <si>
-    <t>42891</t>
-  </si>
-  <si>
-    <t>48337</t>
-  </si>
-  <si>
-    <t>190287</t>
-  </si>
-  <si>
-    <t>41892</t>
-  </si>
-  <si>
-    <t>53742</t>
-  </si>
-  <si>
-    <t>466369</t>
-  </si>
-  <si>
-    <t>106039</t>
-  </si>
-  <si>
-    <t>50247</t>
-  </si>
-  <si>
-    <t>257244</t>
-  </si>
-  <si>
-    <t>154076</t>
-  </si>
-  <si>
-    <t>239527</t>
-  </si>
-  <si>
-    <t>281791</t>
-  </si>
-  <si>
-    <t>280312</t>
-  </si>
-  <si>
-    <t>217863</t>
-  </si>
-  <si>
-    <t>98844</t>
-  </si>
-  <si>
-    <t>160367</t>
-  </si>
-  <si>
-    <t>180538</t>
-  </si>
-  <si>
-    <t>280939</t>
-  </si>
-  <si>
-    <t>475802</t>
-  </si>
-  <si>
-    <t>176423</t>
-  </si>
-  <si>
-    <t>139918</t>
-  </si>
-  <si>
-    <t>152693</t>
-  </si>
-  <si>
-    <t>168957</t>
-  </si>
-  <si>
-    <t>333374</t>
-  </si>
-  <si>
-    <t>512294</t>
-  </si>
-  <si>
-    <t>381343</t>
-  </si>
-  <si>
-    <t>387153</t>
-  </si>
-  <si>
-    <t>154893</t>
-  </si>
-  <si>
-    <t>260259</t>
-  </si>
-  <si>
-    <t>264278</t>
-  </si>
-  <si>
-    <t>383027</t>
-  </si>
-  <si>
-    <t>288537</t>
-  </si>
-  <si>
-    <t>320747</t>
-  </si>
-  <si>
-    <t>144719</t>
-  </si>
-  <si>
-    <t>246309</t>
-  </si>
-  <si>
-    <t>254390</t>
-  </si>
-  <si>
-    <t>33432</t>
-  </si>
-  <si>
-    <t>384664</t>
-  </si>
-  <si>
-    <t>80769</t>
-  </si>
-  <si>
-    <t>31886</t>
-  </si>
-  <si>
-    <t>42029</t>
-  </si>
-  <si>
-    <t>385817</t>
-  </si>
-  <si>
-    <t>168063</t>
-  </si>
-  <si>
-    <t>175947</t>
-  </si>
-  <si>
-    <t>236891</t>
-  </si>
-  <si>
-    <t>327756</t>
-  </si>
-  <si>
-    <t>67655</t>
-  </si>
-  <si>
-    <t>86936</t>
-  </si>
-  <si>
-    <t>239941</t>
-  </si>
-  <si>
-    <t>75640</t>
-  </si>
-  <si>
-    <t>48873</t>
-  </si>
-  <si>
-    <t>255392</t>
-  </si>
-  <si>
-    <t>216424</t>
-  </si>
-  <si>
-    <t>62071</t>
-  </si>
-  <si>
-    <t>260224</t>
-  </si>
-  <si>
-    <t>176514</t>
-  </si>
-  <si>
-    <t>42056</t>
-  </si>
-  <si>
-    <t>315511</t>
-  </si>
-  <si>
-    <t>333261</t>
-  </si>
-  <si>
-    <t>94928</t>
-  </si>
-  <si>
-    <t>281376</t>
-  </si>
-  <si>
-    <t>380597</t>
-  </si>
-  <si>
-    <t>321240</t>
-  </si>
-  <si>
-    <t>242846</t>
-  </si>
-  <si>
-    <t>252608</t>
-  </si>
-  <si>
-    <t>47280</t>
-  </si>
-  <si>
-    <t>267152</t>
-  </si>
-  <si>
-    <t>433602</t>
-  </si>
-  <si>
-    <t>103848</t>
-  </si>
-  <si>
-    <t>52791</t>
-  </si>
-  <si>
-    <t>187669</t>
-  </si>
-  <si>
-    <t>296227</t>
-  </si>
-  <si>
-    <t>239215</t>
-  </si>
-  <si>
-    <t>387052</t>
-  </si>
-  <si>
-    <t>190811</t>
-  </si>
-  <si>
-    <t>283012</t>
-  </si>
-  <si>
-    <t>90889</t>
-  </si>
-  <si>
-    <t>9329</t>
-  </si>
-  <si>
-    <t>344889</t>
-  </si>
-  <si>
-    <t>606752</t>
-  </si>
-  <si>
-    <t>258135</t>
-  </si>
-  <si>
-    <t>310537</t>
-  </si>
-  <si>
-    <t>174542</t>
-  </si>
-  <si>
-    <t>45813</t>
-  </si>
-  <si>
-    <t>77002</t>
-  </si>
-  <si>
-    <t>153638</t>
-  </si>
-  <si>
-    <t>237334</t>
-  </si>
-  <si>
-    <t>184849</t>
-  </si>
-  <si>
-    <t>50751</t>
-  </si>
-  <si>
-    <t>293063</t>
-  </si>
-  <si>
-    <t>36858</t>
-  </si>
-  <si>
-    <t>14909</t>
-  </si>
-  <si>
-    <t>267149</t>
-  </si>
-  <si>
-    <t>143976</t>
-  </si>
-  <si>
-    <t>282434</t>
-  </si>
-  <si>
-    <t>74921</t>
-  </si>
-  <si>
-    <t>42510</t>
-  </si>
-  <si>
-    <t>29509</t>
-  </si>
-  <si>
-    <t>161314</t>
-  </si>
-  <si>
-    <t>100591</t>
-  </si>
-  <si>
-    <t>117683</t>
-  </si>
-  <si>
-    <t>354821</t>
-  </si>
-  <si>
-    <t>51337</t>
-  </si>
-  <si>
-    <t>109742</t>
-  </si>
-  <si>
-    <t>383109</t>
-  </si>
-  <si>
-    <t>447357</t>
-  </si>
-  <si>
-    <t>333859</t>
-  </si>
-  <si>
-    <t>387529</t>
-  </si>
-  <si>
-    <t>308436</t>
-  </si>
-  <si>
-    <t>483461</t>
-  </si>
-  <si>
-    <t>553757</t>
-  </si>
-  <si>
-    <t>404345</t>
-  </si>
-  <si>
-    <t>181612</t>
-  </si>
-  <si>
-    <t>96331</t>
-  </si>
-  <si>
-    <t>70872</t>
-  </si>
-  <si>
-    <t>266250</t>
-  </si>
-  <si>
-    <t>289165</t>
-  </si>
-  <si>
-    <t>284871</t>
-  </si>
-  <si>
-    <t>175451</t>
-  </si>
-  <si>
-    <t>95430</t>
-  </si>
-  <si>
-    <t>251930</t>
-  </si>
-  <si>
-    <t>155202</t>
-  </si>
-  <si>
-    <t>207048</t>
-  </si>
-  <si>
-    <t>307325</t>
-  </si>
-  <si>
-    <t>353826</t>
-  </si>
-  <si>
-    <t>208469</t>
-  </si>
-  <si>
-    <t>361575</t>
-  </si>
-  <si>
-    <t>62086</t>
-  </si>
-  <si>
-    <t>159718</t>
-  </si>
-  <si>
-    <t>352898</t>
-  </si>
-  <si>
-    <t>388042</t>
-  </si>
-  <si>
-    <t>167165</t>
-  </si>
-  <si>
-    <t>289167</t>
-  </si>
-  <si>
-    <t>388953</t>
-  </si>
-  <si>
-    <t>153033</t>
-  </si>
-  <si>
-    <t>59335</t>
-  </si>
-  <si>
-    <t>315557</t>
-  </si>
-  <si>
-    <t>258799</t>
-  </si>
-  <si>
-    <t>141287</t>
-  </si>
-  <si>
-    <t>121154</t>
-  </si>
-  <si>
-    <t>64104</t>
-  </si>
-  <si>
-    <t>240756</t>
-  </si>
-  <si>
-    <t>50271</t>
-  </si>
-  <si>
-    <t>153306</t>
-  </si>
-  <si>
-    <t>385198</t>
-  </si>
-  <si>
-    <t>32306</t>
-  </si>
-  <si>
-    <t>532169</t>
-  </si>
-  <si>
-    <t>199301</t>
-  </si>
-  <si>
-    <t>174504</t>
-  </si>
-  <si>
-    <t>110856</t>
-  </si>
-  <si>
-    <t>74941</t>
-  </si>
-  <si>
-    <t>178056</t>
-  </si>
-  <si>
-    <t>242279</t>
-  </si>
-  <si>
-    <t>384482</t>
-  </si>
-  <si>
-    <t>96290</t>
-  </si>
-  <si>
-    <t>291232</t>
-  </si>
-  <si>
-    <t>80941</t>
-  </si>
-  <si>
-    <t>262613</t>
-  </si>
-  <si>
-    <t>239069</t>
-  </si>
-  <si>
-    <t>162819</t>
-  </si>
-  <si>
-    <t>295495</t>
-  </si>
-  <si>
-    <t>212806</t>
-  </si>
-  <si>
-    <t>426297</t>
-  </si>
-  <si>
-    <t>120104</t>
-  </si>
-  <si>
-    <t>153667</t>
-  </si>
-  <si>
-    <t>385199</t>
-  </si>
-  <si>
-    <t>421710</t>
-  </si>
-  <si>
-    <t>346546</t>
-  </si>
-  <si>
-    <t>42401</t>
-  </si>
-  <si>
-    <t>89637</t>
-  </si>
-  <si>
-    <t>235862</t>
-  </si>
-  <si>
-    <t>98101</t>
-  </si>
-  <si>
-    <t>208172</t>
-  </si>
-  <si>
-    <t>335191</t>
-  </si>
-  <si>
-    <t>27261</t>
-  </si>
-  <si>
-    <t>374418</t>
-  </si>
-  <si>
-    <t>357778</t>
-  </si>
-  <si>
-    <t>402825</t>
-  </si>
-  <si>
-    <t>86635</t>
-  </si>
-  <si>
-    <t>130687</t>
-  </si>
-  <si>
-    <t>181715</t>
-  </si>
-  <si>
-    <t>185691</t>
-  </si>
-  <si>
-    <t>83616</t>
-  </si>
-  <si>
-    <t>146067</t>
-  </si>
-  <si>
-    <t>194205</t>
-  </si>
-  <si>
-    <t>182718</t>
-  </si>
-  <si>
-    <t>267160</t>
-  </si>
-  <si>
-    <t>82471</t>
-  </si>
-  <si>
-    <t>289168</t>
-  </si>
-  <si>
-    <t>87444</t>
-  </si>
-  <si>
-    <t>291276</t>
-  </si>
-  <si>
-    <t>228885</t>
-  </si>
-  <si>
-    <t>130444</t>
-  </si>
-  <si>
-    <t>90367</t>
-  </si>
-  <si>
-    <t>77947</t>
-  </si>
-  <si>
-    <t>289172</t>
-  </si>
-  <si>
-    <t>278690</t>
-  </si>
-  <si>
-    <t>24576</t>
-  </si>
-  <si>
-    <t>84918</t>
-  </si>
-  <si>
-    <t>187945</t>
-  </si>
-  <si>
-    <t>74687</t>
-  </si>
-  <si>
-    <t>255910</t>
-  </si>
-  <si>
-    <t>199302</t>
-  </si>
-  <si>
-    <t>55978</t>
-  </si>
-  <si>
-    <t>232015</t>
-  </si>
-  <si>
-    <t>124559</t>
-  </si>
-  <si>
-    <t>80732</t>
-  </si>
-  <si>
-    <t>248395</t>
-  </si>
-  <si>
-    <t>217709</t>
-  </si>
-  <si>
-    <t>510545</t>
-  </si>
-  <si>
-    <t>435807</t>
-  </si>
-  <si>
-    <t>153992</t>
-  </si>
-  <si>
-    <t>46590</t>
-  </si>
-  <si>
-    <t>29115</t>
-  </si>
-  <si>
-    <t>281246</t>
-  </si>
-  <si>
-    <t>174522</t>
-  </si>
-  <si>
-    <t>386967</t>
-  </si>
-  <si>
-    <t>356515</t>
-  </si>
-  <si>
-    <t>385197</t>
-  </si>
-  <si>
-    <t>452447</t>
-  </si>
-  <si>
-    <t>210364</t>
-  </si>
-  <si>
-    <t>358909</t>
-  </si>
-  <si>
-    <t>320704</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="265">
+  <si>
+    <t>SQUAD</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>ASSIST</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>689475</t>
+  </si>
+  <si>
+    <t>450620</t>
+  </si>
+  <si>
+    <t>259657</t>
+  </si>
+  <si>
+    <t>199118</t>
+  </si>
+  <si>
+    <t>142361</t>
+  </si>
+  <si>
+    <t>242845</t>
+  </si>
+  <si>
+    <t>242817</t>
+  </si>
+  <si>
+    <t>357314</t>
+  </si>
+  <si>
+    <t>106305</t>
+  </si>
+  <si>
+    <t>35149</t>
+  </si>
+  <si>
+    <t>136010</t>
+  </si>
+  <si>
+    <t>454377</t>
+  </si>
+  <si>
+    <t>407101</t>
+  </si>
+  <si>
+    <t>359028</t>
+  </si>
+  <si>
+    <t>386971</t>
+  </si>
+  <si>
+    <t>273359</t>
+  </si>
+  <si>
+    <t>278802</t>
+  </si>
+  <si>
+    <t>254937</t>
+  </si>
+  <si>
+    <t>387032</t>
+  </si>
+  <si>
+    <t>256863</t>
+  </si>
+  <si>
+    <t>387635</t>
+  </si>
+  <si>
+    <t>29534</t>
+  </si>
+  <si>
+    <t>225850</t>
+  </si>
+  <si>
+    <t>284858</t>
+  </si>
+  <si>
+    <t>240853</t>
+  </si>
+  <si>
+    <t>689476</t>
+  </si>
+  <si>
+    <t>387258</t>
+  </si>
+  <si>
+    <t>608616</t>
+  </si>
+  <si>
+    <t>364695</t>
+  </si>
+  <si>
+    <t>530936</t>
+  </si>
+  <si>
+    <t>261885</t>
+  </si>
+  <si>
+    <t>334961</t>
+  </si>
+  <si>
+    <t>296822</t>
+  </si>
+  <si>
+    <t>289163</t>
+  </si>
+  <si>
+    <t>593308</t>
+  </si>
+  <si>
+    <t>381581</t>
+  </si>
+  <si>
+    <t>235829</t>
+  </si>
+  <si>
+    <t>122482</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>306637</t>
+  </si>
+  <si>
+    <t>381677</t>
+  </si>
+  <si>
+    <t>447355</t>
+  </si>
+  <si>
+    <t>17580</t>
+  </si>
+  <si>
+    <t>54988</t>
+  </si>
+  <si>
+    <t>188156</t>
+  </si>
+  <si>
+    <t>396132</t>
+  </si>
+  <si>
+    <t>279378</t>
+  </si>
+  <si>
+    <t>66723</t>
+  </si>
+  <si>
+    <t>142610</t>
+  </si>
+  <si>
+    <t>387510</t>
+  </si>
+  <si>
+    <t>622871</t>
+  </si>
+  <si>
+    <t>451471</t>
+  </si>
+  <si>
+    <t>385722</t>
+  </si>
+  <si>
+    <t>243029</t>
+  </si>
+  <si>
+    <t>280729</t>
+  </si>
+  <si>
+    <t>239136</t>
+  </si>
+  <si>
+    <t>478404</t>
+  </si>
+  <si>
+    <t>236899</t>
+  </si>
+  <si>
+    <t>214782</t>
+  </si>
+  <si>
+    <t>296836</t>
+  </si>
+  <si>
+    <t>631866</t>
+  </si>
+  <si>
+    <t>190072</t>
+  </si>
+  <si>
+    <t>425761</t>
+  </si>
+  <si>
+    <t>216484</t>
+  </si>
+  <si>
+    <t>279377</t>
+  </si>
+  <si>
+    <t>237363</t>
+  </si>
+  <si>
+    <t>169449</t>
+  </si>
+  <si>
+    <t>452706</t>
+  </si>
+  <si>
+    <t>474182</t>
+  </si>
+  <si>
+    <t>76071</t>
+  </si>
+  <si>
+    <t>273357</t>
+  </si>
+  <si>
+    <t>357305</t>
+  </si>
+  <si>
+    <t>79869</t>
+  </si>
+  <si>
+    <t>221957</t>
+  </si>
+  <si>
+    <t>216480</t>
+  </si>
+  <si>
+    <t>531394</t>
+  </si>
+  <si>
+    <t>385765</t>
+  </si>
+  <si>
+    <t>387265</t>
+  </si>
+  <si>
+    <t>70878</t>
+  </si>
+  <si>
+    <t>453141</t>
+  </si>
+  <si>
+    <t>296839</t>
+  </si>
+  <si>
+    <t>273673</t>
+  </si>
+  <si>
+    <t>683278</t>
+  </si>
+  <si>
+    <t>568874</t>
+  </si>
+  <si>
+    <t>474189</t>
+  </si>
+  <si>
+    <t>447367</t>
+  </si>
+  <si>
+    <t>387288</t>
+  </si>
+  <si>
+    <t>408955</t>
+  </si>
+  <si>
+    <t>295372</t>
+  </si>
+  <si>
+    <t>105301</t>
+  </si>
+  <si>
+    <t>504361</t>
+  </si>
+  <si>
+    <t>202961</t>
+  </si>
+  <si>
+    <t>240326</t>
+  </si>
+  <si>
+    <t>220973</t>
+  </si>
+  <si>
+    <t>351796</t>
+  </si>
+  <si>
+    <t>158798</t>
+  </si>
+  <si>
+    <t>267623</t>
+  </si>
+  <si>
+    <t>87691</t>
+  </si>
+  <si>
+    <t>281221</t>
+  </si>
+  <si>
+    <t>446898</t>
+  </si>
+  <si>
+    <t>38282</t>
+  </si>
+  <si>
+    <t>494958</t>
+  </si>
+  <si>
+    <t>188554</t>
+  </si>
+  <si>
+    <t>32247</t>
+  </si>
+  <si>
+    <t>264907</t>
+  </si>
+  <si>
+    <t>452524</t>
+  </si>
+  <si>
+    <t>267463</t>
+  </si>
+  <si>
+    <t>44048</t>
+  </si>
+  <si>
+    <t>451967</t>
+  </si>
+  <si>
+    <t>401608</t>
+  </si>
+  <si>
+    <t>463165</t>
+  </si>
+  <si>
+    <t>359030</t>
+  </si>
+  <si>
+    <t>382596</t>
+  </si>
+  <si>
+    <t>294257</t>
+  </si>
+  <si>
+    <t>472141</t>
+  </si>
+  <si>
+    <t>452650</t>
+  </si>
+  <si>
+    <t>570595</t>
+  </si>
+  <si>
+    <t>189309</t>
+  </si>
+  <si>
+    <t>143784</t>
+  </si>
+  <si>
+    <t>273353</t>
+  </si>
+  <si>
+    <t>442241</t>
+  </si>
+  <si>
+    <t>35071</t>
+  </si>
+  <si>
+    <t>384522</t>
+  </si>
+  <si>
+    <t>174605</t>
+  </si>
+  <si>
+    <t>137228</t>
+  </si>
+  <si>
+    <t>300427</t>
+  </si>
+  <si>
+    <t>33422</t>
+  </si>
+  <si>
+    <t>262467</t>
+  </si>
+  <si>
+    <t>434716</t>
+  </si>
+  <si>
+    <t>207684</t>
+  </si>
+  <si>
+    <t>225415</t>
+  </si>
+  <si>
+    <t>45497</t>
+  </si>
+  <si>
+    <t>135286</t>
+  </si>
+  <si>
+    <t>465499</t>
+  </si>
+  <si>
+    <t>320727</t>
+  </si>
+  <si>
+    <t>447594</t>
+  </si>
+  <si>
+    <t>383108</t>
+  </si>
+  <si>
+    <t>447282</t>
+  </si>
+  <si>
+    <t>280349</t>
+  </si>
+  <si>
+    <t>192664</t>
+  </si>
+  <si>
+    <t>381715</t>
+  </si>
+  <si>
+    <t>607860</t>
+  </si>
+  <si>
+    <t>266050</t>
+  </si>
+  <si>
+    <t>421709</t>
+  </si>
+  <si>
+    <t>457217</t>
+  </si>
+  <si>
+    <t>284865</t>
+  </si>
+  <si>
+    <t>243777</t>
+  </si>
+  <si>
+    <t>395933</t>
+  </si>
+  <si>
+    <t>241850</t>
+  </si>
+  <si>
+    <t>398321</t>
+  </si>
+  <si>
+    <t>384387</t>
+  </si>
+  <si>
+    <t>385041</t>
+  </si>
+  <si>
+    <t>385502</t>
+  </si>
+  <si>
+    <t>452498</t>
+  </si>
+  <si>
+    <t>401867</t>
+  </si>
+  <si>
+    <t>401868</t>
+  </si>
+  <si>
+    <t>199305</t>
+  </si>
+  <si>
+    <t>585080</t>
+  </si>
+  <si>
+    <t>220974</t>
+  </si>
+  <si>
+    <t>158448</t>
+  </si>
+  <si>
+    <t>241855</t>
+  </si>
+  <si>
+    <t>279323</t>
+  </si>
+  <si>
+    <t>321564</t>
+  </si>
+  <si>
+    <t>528414</t>
+  </si>
+  <si>
+    <t>40076</t>
+  </si>
+  <si>
+    <t>36727</t>
+  </si>
+  <si>
+    <t>356514</t>
+  </si>
+  <si>
+    <t>225908</t>
+  </si>
+  <si>
+    <t>37078</t>
+  </si>
+  <si>
+    <t>476306</t>
+  </si>
+  <si>
+    <t>281531</t>
+  </si>
+  <si>
+    <t>450044</t>
+  </si>
+  <si>
+    <t>363529</t>
+  </si>
+  <si>
+    <t>529418</t>
+  </si>
+  <si>
+    <t>521230</t>
+  </si>
+  <si>
+    <t>260714</t>
+  </si>
+  <si>
+    <t>440253</t>
+  </si>
+  <si>
+    <t>137234</t>
+  </si>
+  <si>
+    <t>439857</t>
+  </si>
+  <si>
+    <t>248762</t>
+  </si>
+  <si>
+    <t>92298</t>
+  </si>
+  <si>
+    <t>385767</t>
+  </si>
+  <si>
+    <t>342102</t>
+  </si>
+  <si>
+    <t>495557</t>
+  </si>
+  <si>
+    <t>492351</t>
+  </si>
+  <si>
+    <t>516822</t>
+  </si>
+  <si>
+    <t>342660</t>
+  </si>
+  <si>
+    <t>450632</t>
+  </si>
+  <si>
+    <t>384962</t>
+  </si>
+  <si>
+    <t>332080</t>
+  </si>
+  <si>
+    <t>220977</t>
+  </si>
+  <si>
+    <t>450637</t>
+  </si>
+  <si>
+    <t>450636</t>
+  </si>
+  <si>
+    <t>450638</t>
+  </si>
+  <si>
+    <t>450131</t>
+  </si>
+  <si>
+    <t>266046</t>
+  </si>
+  <si>
+    <t>236240</t>
+  </si>
+  <si>
+    <t>278865</t>
+  </si>
+  <si>
+    <t>267258</t>
+  </si>
+  <si>
+    <t>503007</t>
+  </si>
+  <si>
+    <t>409048</t>
+  </si>
+  <si>
+    <t>331604</t>
+  </si>
+  <si>
+    <t>465500</t>
+  </si>
+  <si>
+    <t>453944</t>
+  </si>
+  <si>
+    <t>345452</t>
+  </si>
+  <si>
+    <t>208441</t>
+  </si>
+  <si>
+    <t>466224</t>
+  </si>
+  <si>
+    <t>296499</t>
+  </si>
+  <si>
+    <t>70024</t>
+  </si>
+  <si>
+    <t>266265</t>
+  </si>
+  <si>
+    <t>248353</t>
+  </si>
+  <si>
+    <t>128804</t>
+  </si>
+  <si>
+    <t>409111</t>
+  </si>
+  <si>
+    <t>384478</t>
+  </si>
+  <si>
+    <t>187975</t>
+  </si>
+  <si>
+    <t>520503</t>
+  </si>
+  <si>
+    <t>67919</t>
+  </si>
+  <si>
+    <t>495239</t>
+  </si>
+  <si>
+    <t>258229</t>
+  </si>
+  <si>
+    <t>431015</t>
+  </si>
+  <si>
+    <t>80789</t>
+  </si>
+  <si>
+    <t>48282</t>
+  </si>
+  <si>
+    <t>342040</t>
+  </si>
+  <si>
+    <t>605107</t>
+  </si>
+  <si>
+    <t>69122</t>
+  </si>
+  <si>
+    <t>32610</t>
+  </si>
+  <si>
+    <t>206927</t>
+  </si>
+  <si>
+    <t>345440</t>
+  </si>
+  <si>
+    <t>238467</t>
+  </si>
+  <si>
+    <t>371090</t>
+  </si>
+  <si>
+    <t>520810</t>
+  </si>
+  <si>
+    <t>503857</t>
+  </si>
+  <si>
+    <t>470231</t>
+  </si>
+  <si>
+    <t>325448</t>
+  </si>
+  <si>
+    <t>82101</t>
+  </si>
+  <si>
+    <t>143305</t>
+  </si>
+  <si>
+    <t>503417</t>
+  </si>
+  <si>
+    <t>129362</t>
+  </si>
+  <si>
+    <t>281231</t>
+  </si>
+  <si>
+    <t>130438</t>
+  </si>
+  <si>
+    <t>118002</t>
+  </si>
+  <si>
+    <t>401600</t>
+  </si>
+  <si>
+    <t>451460</t>
+  </si>
+  <si>
+    <t>272102</t>
+  </si>
+  <si>
+    <t>266269</t>
+  </si>
+  <si>
+    <t>24524</t>
+  </si>
+  <si>
+    <t>407089</t>
+  </si>
+  <si>
+    <t>291343</t>
+  </si>
+  <si>
+    <t>345454</t>
+  </si>
+  <si>
+    <t>462279</t>
+  </si>
+  <si>
+    <t>366232</t>
+  </si>
+  <si>
+    <t>384461</t>
+  </si>
+  <si>
+    <t>412483</t>
+  </si>
+  <si>
+    <t>407098</t>
+  </si>
+  <si>
+    <t>554972</t>
+  </si>
+  <si>
+    <t>454818</t>
+  </si>
+  <si>
+    <t>289208</t>
+  </si>
+  <si>
+    <t>456452</t>
+  </si>
+  <si>
+    <t>504602</t>
+  </si>
+  <si>
+    <t>407099</t>
   </si>
 </sst>
 </file>
@@ -1054,19 +1181,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1075,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1095,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1115,19 +1242,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1135,13 +1262,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1149,13 +1276,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1163,13 +1290,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1177,7 +1304,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1185,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1193,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1201,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1209,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1217,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1225,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1233,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1241,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1249,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1257,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1265,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1273,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1281,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1289,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1297,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1307,177 +1440,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1485,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1493,7 +1650,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1501,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1509,7 +1666,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1517,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1525,7 +1682,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1533,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1550,19 +1707,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1571,19 +1728,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1591,13 +1745,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1605,13 +1759,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1619,13 +1773,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1633,13 +1787,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1647,13 +1801,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1661,7 +1815,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1669,7 +1829,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1677,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1685,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1693,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1701,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1709,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1717,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1725,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1733,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1741,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1749,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1757,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1765,7 +1931,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1773,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1781,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1798,19 +1964,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1819,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>101</v>
@@ -1839,13 +2005,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1853,13 +2025,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1867,13 +2045,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1881,13 +2062,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1895,7 +2076,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1903,7 +2090,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1911,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1919,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1927,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1935,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1943,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1951,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1959,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1967,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1975,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1983,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1991,7 +2184,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1999,7 +2192,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2007,7 +2200,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2015,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2023,7 +2216,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2040,19 +2233,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2061,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2081,19 +2274,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2101,13 +2294,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2115,13 +2314,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2129,13 +2331,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2143,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2157,7 +2359,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2165,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2173,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2181,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2189,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2197,7 +2405,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2205,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2213,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2221,7 +2429,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2229,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2237,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2245,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2253,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2261,7 +2469,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2269,7 +2477,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2277,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2294,19 +2502,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2315,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2335,19 +2543,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2355,13 +2563,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2369,13 +2583,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2383,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2397,13 +2611,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2411,7 +2625,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2419,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2427,7 +2647,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2435,7 +2655,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2443,7 +2663,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2451,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2459,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2467,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2475,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2483,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2491,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2499,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2507,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2515,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2523,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2531,7 +2751,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2548,19 +2768,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2569,19 +2789,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2589,19 +2809,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
         <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2609,19 +2829,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2629,13 +2843,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2643,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2657,13 +2871,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2671,7 +2885,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2679,7 +2899,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2687,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2695,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2703,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2711,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2719,7 +2945,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2727,7 +2953,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2735,7 +2961,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2743,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2751,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2759,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2767,7 +2993,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2775,7 +3001,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2783,7 +3009,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2791,7 +3017,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2808,19 +3034,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2829,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2849,19 +3075,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="s">
         <v>218</v>
-      </c>
-      <c r="F3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2869,13 +3095,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2883,13 +3115,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2897,13 +3135,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2911,13 +3149,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2925,7 +3163,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2933,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2941,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2949,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2957,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2965,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2973,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2981,7 +3225,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2989,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2997,7 +3241,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3005,7 +3249,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3013,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3021,7 +3265,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3029,7 +3273,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3037,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3045,7 +3289,270 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
